--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D1EDEA-9C8A-294B-94BB-A883D3B66BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19977C1-E690-044C-A049-CD04914F8A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="960" windowWidth="42440" windowHeight="23360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47060" yWindow="1960" windowWidth="42440" windowHeight="23360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记复习第一遍" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19977C1-E690-044C-A049-CD04914F8A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC4C292-4710-0342-8BC1-DDF4F01E655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47060" yWindow="1960" windowWidth="42440" windowHeight="23360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47000" yWindow="3920" windowWidth="42440" windowHeight="23360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记复习第一遍" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>章节</t>
   </si>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>第一遍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前星期几</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +379,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,6 +460,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -786,7 +793,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1086,11 +1093,11 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="F8" s="8">
         <v>11</v>
@@ -1109,7 +1116,9 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
+      <c r="S8" s="22">
+        <v>18</v>
+      </c>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
@@ -1160,11 +1169,11 @@
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F10" s="8">
         <v>15</v>
@@ -1247,7 +1256,7 @@
     <row r="13" spans="1:22">
       <c r="A13" s="26">
         <f>C10/B10</f>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -1330,11 +1339,11 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="24">
-        <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f ca="1">TEXT(TODAY(), "dddd")</f>
+        <v>Thursday</v>
       </c>
       <c r="F16" s="8">
         <v>27</v>
@@ -1359,6 +1368,13 @@
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:22">
+      <c r="A17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="24">
+        <f ca="1">TODAY()</f>
+        <v>45736</v>
+      </c>
       <c r="F17" s="8">
         <v>29</v>
       </c>
@@ -1382,15 +1398,6 @@
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="F18" s="8">
         <v>31</v>
       </c>
@@ -1415,7 +1422,13 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
       </c>
       <c r="F19" s="8">
         <v>33</v>
@@ -1440,6 +1453,9 @@
       <c r="V19" s="16"/>
     </row>
     <row r="20" spans="1:22">
+      <c r="A20" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="F20" s="8">
         <v>35</v>
       </c>
@@ -1659,7 +1675,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D2:D10 A13:D13 D39">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1673,7 +1689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1684,6 +1700,26 @@
           <x14:id>{6B768E92-2DC8-EA41-A050-E41403F86B35}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:V28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:M28">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC4C292-4710-0342-8BC1-DDF4F01E655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F35FA6-4D83-9747-B9FE-D955A0DBAFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47000" yWindow="3920" windowWidth="42440" windowHeight="23360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52940" yWindow="2900" windowWidth="42440" windowHeight="23360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记复习第一遍" sheetId="1" r:id="rId1"/>
@@ -447,6 +447,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,9 +463,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -793,7 +793,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -801,7 +801,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
@@ -821,25 +821,25 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1" s="26">
         <v>2025</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
@@ -1057,11 +1057,11 @@
         <v>44</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.34090909090909088</v>
       </c>
       <c r="F7" s="8">
         <v>9</v>
@@ -1093,11 +1093,11 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>0.62068965517241381</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8">
         <v>11</v>
@@ -1119,8 +1119,12 @@
       <c r="S8" s="22">
         <v>18</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
+      <c r="T8" s="22">
+        <v>30</v>
+      </c>
+      <c r="U8" s="22">
+        <v>15</v>
+      </c>
       <c r="V8" s="22"/>
     </row>
     <row r="9" spans="1:22">
@@ -1131,11 +1135,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="8">
         <v>13</v>
@@ -1169,11 +1173,11 @@
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="F10" s="8">
         <v>15</v>
@@ -1225,12 +1229,12 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="F12" s="8">
         <v>19</v>
       </c>
@@ -1254,13 +1258,13 @@
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="26">
+      <c r="A13" s="27">
         <f>C10/B10</f>
-        <v>0.06</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+        <v>0.21</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
       <c r="F13" s="8">
         <v>21</v>
       </c>
@@ -1341,9 +1345,9 @@
       <c r="A16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="30" t="str">
+      <c r="B16" s="25" t="str">
         <f ca="1">TEXT(TODAY(), "dddd")</f>
-        <v>Thursday</v>
+        <v>Saturday</v>
       </c>
       <c r="F16" s="8">
         <v>27</v>
@@ -1373,7 +1377,7 @@
       </c>
       <c r="B17" s="24">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45738</v>
       </c>
       <c r="F17" s="8">
         <v>29</v>
@@ -1702,8 +1706,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:V28">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G3:M28">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="50"/>
@@ -1712,8 +1716,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:M28">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="P3:V28">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="50"/>
@@ -1777,25 +1781,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="31">
-      <c r="B1" s="25">
+      <c r="B1" s="26">
         <v>2025</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" s="8" t="s">

--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F35FA6-4D83-9747-B9FE-D955A0DBAFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F717A619-71C4-EF49-A358-08B5592AB975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52940" yWindow="2900" windowWidth="42440" windowHeight="23360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47440" yWindow="3580" windowWidth="42440" windowHeight="23360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记复习第一遍" sheetId="1" r:id="rId1"/>
@@ -793,7 +793,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1057,11 +1057,11 @@
         <v>44</v>
       </c>
       <c r="C7" s="1">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0.34090909090909088</v>
+        <v>1</v>
       </c>
       <c r="F7" s="8">
         <v>9</v>
@@ -1123,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="U8" s="22">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="V8" s="22"/>
     </row>
@@ -1173,11 +1173,11 @@
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>0.21</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="F10" s="8">
         <v>15</v>
@@ -1260,7 +1260,7 @@
     <row r="13" spans="1:22">
       <c r="A13" s="27">
         <f>C10/B10</f>
-        <v>0.21</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>

--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F717A619-71C4-EF49-A358-08B5592AB975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1B28B-955B-3946-9E74-B2C4E61CED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47440" yWindow="3580" windowWidth="42440" windowHeight="23360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46900" yWindow="2140" windowWidth="42440" windowHeight="23360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记复习第一遍" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +214,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
@@ -379,7 +387,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,12 +442,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -463,6 +465,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -793,7 +804,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -821,25 +832,25 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1" s="24">
         <v>2025</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
@@ -851,7 +862,7 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="31">
         <f>C2/B2</f>
         <v>0</v>
       </c>
@@ -1021,11 +1032,11 @@
         <v>43</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="8">
         <v>7</v>
@@ -1110,22 +1121,24 @@
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="20">
+      <c r="O8" s="13">
         <v>12</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22">
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="20">
         <v>18</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="20">
         <v>30</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="20">
         <v>44</v>
       </c>
-      <c r="V8" s="22"/>
+      <c r="V8" s="20">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
@@ -1141,16 +1154,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="29">
         <v>13</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="12"/>
       <c r="O9" s="13">
         <v>14</v>
@@ -1173,11 +1186,11 @@
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>0.30666666666666664</v>
+        <v>0.45</v>
       </c>
       <c r="F10" s="8">
         <v>15</v>
@@ -1229,12 +1242,12 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="F12" s="8">
         <v>19</v>
       </c>
@@ -1258,13 +1271,13 @@
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <f>C10/B10</f>
-        <v>0.30666666666666664</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
+        <v>0.45</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
       <c r="F13" s="8">
         <v>21</v>
       </c>
@@ -1316,7 +1329,7 @@
       </c>
       <c r="B15" s="19">
         <f ca="1">WEEKNUM(TODAY())</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="6"/>
       <c r="F15" s="8">
@@ -1345,9 +1358,9 @@
       <c r="A16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="25" t="str">
+      <c r="B16" s="23" t="str">
         <f ca="1">TEXT(TODAY(), "dddd")</f>
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="F16" s="8">
         <v>27</v>
@@ -1375,9 +1388,9 @@
       <c r="A17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <f ca="1">TODAY()</f>
-        <v>45738</v>
+        <v>45739</v>
       </c>
       <c r="F17" s="8">
         <v>29</v>
@@ -1667,7 +1680,7 @@
       <c r="V28" s="16"/>
     </row>
     <row r="39" spans="4:4" hidden="1">
-      <c r="D39" s="23">
+      <c r="D39" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1781,25 +1794,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="31">
-      <c r="B1" s="26">
+      <c r="B1" s="24">
         <v>2025</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" s="8" t="s">

--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1B28B-955B-3946-9E74-B2C4E61CED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E6783B-17B8-6942-B564-D0E4DE88D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46900" yWindow="2140" windowWidth="42440" windowHeight="23360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47120" yWindow="1580" windowWidth="42980" windowHeight="24960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记复习第一遍" sheetId="1" r:id="rId1"/>
@@ -140,8 +140,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -229,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +394,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,25 +462,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -804,7 +820,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -815,6 +831,7 @@
     <col min="4" max="4" width="51.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
     <col min="16" max="22" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -862,57 +879,57 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="27">
         <f>C2/B2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="29" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -930,7 +947,7 @@
         <f t="shared" ref="D3:D10" si="0">C3/B3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="28">
         <v>1</v>
       </c>
       <c r="G3" s="16"/>
@@ -941,7 +958,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="17"/>
       <c r="N3" s="12"/>
-      <c r="O3" s="13">
+      <c r="O3" s="30">
         <v>2</v>
       </c>
       <c r="P3" s="18"/>
@@ -966,7 +983,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="28">
         <v>3</v>
       </c>
       <c r="G4" s="16"/>
@@ -977,7 +994,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="17"/>
       <c r="N4" s="12"/>
-      <c r="O4" s="13">
+      <c r="O4" s="30">
         <v>4</v>
       </c>
       <c r="P4" s="18"/>
@@ -996,13 +1013,13 @@
         <v>49</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="F5" s="28">
         <v>5</v>
       </c>
       <c r="G5" s="16"/>
@@ -1013,7 +1030,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="17"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="13">
+      <c r="O5" s="30">
         <v>6</v>
       </c>
       <c r="P5" s="18"/>
@@ -1038,7 +1055,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="28">
         <v>7</v>
       </c>
       <c r="G6" s="16"/>
@@ -1049,7 +1066,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="17"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="13">
+      <c r="O6" s="30">
         <v>8</v>
       </c>
       <c r="P6" s="18"/>
@@ -1074,7 +1091,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="28">
         <v>9</v>
       </c>
       <c r="G7" s="16"/>
@@ -1085,7 +1102,7 @@
       <c r="L7" s="16"/>
       <c r="M7" s="17"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="13">
+      <c r="O7" s="30">
         <v>10</v>
       </c>
       <c r="P7" s="18"/>
@@ -1110,7 +1127,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="28">
         <v>11</v>
       </c>
       <c r="G8" s="16"/>
@@ -1121,7 +1138,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="13">
+      <c r="O8" s="30">
         <v>12</v>
       </c>
       <c r="P8" s="18"/>
@@ -1137,7 +1154,7 @@
         <v>44</v>
       </c>
       <c r="V8" s="20">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1154,18 +1171,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>13</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20">
+        <v>15</v>
+      </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="30"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="13">
+      <c r="O9" s="30">
         <v>14</v>
       </c>
       <c r="P9" s="18"/>
@@ -1186,13 +1205,13 @@
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>135</v>
-      </c>
-      <c r="D10" s="5">
+        <v>159</v>
+      </c>
+      <c r="D10" s="34">
         <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="F10" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="F10" s="28">
         <v>15</v>
       </c>
       <c r="G10" s="16"/>
@@ -1203,7 +1222,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="17"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="13">
+      <c r="O10" s="30">
         <v>16</v>
       </c>
       <c r="P10" s="18"/>
@@ -1219,7 +1238,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="8">
+      <c r="F11" s="28">
         <v>17</v>
       </c>
       <c r="G11" s="16"/>
@@ -1230,7 +1249,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="13">
+      <c r="O11" s="30">
         <v>18</v>
       </c>
       <c r="P11" s="18"/>
@@ -1242,13 +1261,13 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="F12" s="8">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="F12" s="28">
         <v>19</v>
       </c>
       <c r="G12" s="16"/>
@@ -1259,7 +1278,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="17"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="13">
+      <c r="O12" s="30">
         <v>20</v>
       </c>
       <c r="P12" s="18"/>
@@ -1271,14 +1290,14 @@
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="25">
+      <c r="A13" s="31">
         <f>C10/B10</f>
-        <v>0.45</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="F13" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="28">
         <v>21</v>
       </c>
       <c r="G13" s="16"/>
@@ -1289,7 +1308,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="17"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="13">
+      <c r="O13" s="30">
         <v>22</v>
       </c>
       <c r="P13" s="18"/>
@@ -1301,7 +1320,7 @@
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="F14" s="8">
+      <c r="F14" s="28">
         <v>23</v>
       </c>
       <c r="G14" s="16"/>
@@ -1312,7 +1331,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="13">
+      <c r="O14" s="30">
         <v>24</v>
       </c>
       <c r="P14" s="18"/>
@@ -1332,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="F15" s="8">
+      <c r="F15" s="28">
         <v>25</v>
       </c>
       <c r="G15" s="16"/>
@@ -1343,7 +1362,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="13">
+      <c r="O15" s="30">
         <v>26</v>
       </c>
       <c r="P15" s="18"/>
@@ -1360,9 +1379,9 @@
       </c>
       <c r="B16" s="23" t="str">
         <f ca="1">TEXT(TODAY(), "dddd")</f>
-        <v>Sunday</v>
-      </c>
-      <c r="F16" s="8">
+        <v>Monday</v>
+      </c>
+      <c r="F16" s="28">
         <v>27</v>
       </c>
       <c r="G16" s="16"/>
@@ -1373,7 +1392,7 @@
       <c r="L16" s="16"/>
       <c r="M16" s="17"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="13">
+      <c r="O16" s="30">
         <v>28</v>
       </c>
       <c r="P16" s="18"/>
@@ -1390,9 +1409,9 @@
       </c>
       <c r="B17" s="22">
         <f ca="1">TODAY()</f>
-        <v>45739</v>
-      </c>
-      <c r="F17" s="8">
+        <v>45740</v>
+      </c>
+      <c r="F17" s="28">
         <v>29</v>
       </c>
       <c r="G17" s="16"/>
@@ -1403,7 +1422,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="17"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="13">
+      <c r="O17" s="30">
         <v>30</v>
       </c>
       <c r="P17" s="18"/>
@@ -1415,7 +1434,7 @@
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="F18" s="8">
+      <c r="F18" s="28">
         <v>31</v>
       </c>
       <c r="G18" s="16"/>
@@ -1426,7 +1445,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="17"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="13">
+      <c r="O18" s="30">
         <v>32</v>
       </c>
       <c r="P18" s="18"/>
@@ -1447,7 +1466,7 @@
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="28">
         <v>33</v>
       </c>
       <c r="G19" s="16"/>
@@ -1458,7 +1477,7 @@
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="13">
+      <c r="O19" s="30">
         <v>34</v>
       </c>
       <c r="P19" s="18"/>
@@ -1473,7 +1492,7 @@
       <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="28">
         <v>35</v>
       </c>
       <c r="G20" s="16"/>
@@ -1484,7 +1503,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="17"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="13">
+      <c r="O20" s="30">
         <v>36</v>
       </c>
       <c r="P20" s="18"/>
@@ -1496,7 +1515,7 @@
       <c r="V20" s="16"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="F21" s="8">
+      <c r="F21" s="28">
         <v>37</v>
       </c>
       <c r="G21" s="16"/>
@@ -1507,7 +1526,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="17"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="13">
+      <c r="O21" s="30">
         <v>38</v>
       </c>
       <c r="P21" s="18"/>
@@ -1519,7 +1538,7 @@
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="F22" s="8">
+      <c r="F22" s="28">
         <v>39</v>
       </c>
       <c r="G22" s="16"/>
@@ -1530,7 +1549,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="17"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="13">
+      <c r="O22" s="30">
         <v>40</v>
       </c>
       <c r="P22" s="18"/>
@@ -1542,7 +1561,7 @@
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="F23" s="8">
+      <c r="F23" s="28">
         <v>41</v>
       </c>
       <c r="G23" s="16"/>
@@ -1553,7 +1572,7 @@
       <c r="L23" s="16"/>
       <c r="M23" s="17"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="13">
+      <c r="O23" s="30">
         <v>42</v>
       </c>
       <c r="P23" s="18"/>
@@ -1565,7 +1584,7 @@
       <c r="V23" s="16"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="F24" s="8">
+      <c r="F24" s="28">
         <v>43</v>
       </c>
       <c r="G24" s="16"/>
@@ -1576,7 +1595,7 @@
       <c r="L24" s="16"/>
       <c r="M24" s="17"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="13">
+      <c r="O24" s="30">
         <v>44</v>
       </c>
       <c r="P24" s="18"/>
@@ -1588,7 +1607,7 @@
       <c r="V24" s="16"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="F25" s="8">
+      <c r="F25" s="28">
         <v>45</v>
       </c>
       <c r="G25" s="16"/>
@@ -1599,7 +1618,7 @@
       <c r="L25" s="16"/>
       <c r="M25" s="17"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="13">
+      <c r="O25" s="30">
         <v>46</v>
       </c>
       <c r="P25" s="18"/>
@@ -1611,7 +1630,7 @@
       <c r="V25" s="16"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="F26" s="8">
+      <c r="F26" s="28">
         <v>47</v>
       </c>
       <c r="G26" s="16"/>
@@ -1622,7 +1641,7 @@
       <c r="L26" s="16"/>
       <c r="M26" s="17"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="13">
+      <c r="O26" s="30">
         <v>48</v>
       </c>
       <c r="P26" s="18"/>
@@ -1634,7 +1653,7 @@
       <c r="V26" s="16"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="F27" s="8">
+      <c r="F27" s="28">
         <v>49</v>
       </c>
       <c r="G27" s="16"/>
@@ -1645,7 +1664,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="13">
+      <c r="O27" s="30">
         <v>50</v>
       </c>
       <c r="P27" s="18"/>
@@ -1657,7 +1676,7 @@
       <c r="V27" s="16"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="F28" s="8">
+      <c r="F28" s="28">
         <v>51</v>
       </c>
       <c r="G28" s="16"/>
@@ -1668,7 +1687,7 @@
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="13">
+      <c r="O28" s="30">
         <v>52</v>
       </c>
       <c r="P28" s="16"/>

--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E6783B-17B8-6942-B564-D0E4DE88D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D00CC-4510-284D-AC65-808241E27337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47120" yWindow="1580" windowWidth="42980" windowHeight="24960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47380" yWindow="2320" windowWidth="42980" windowHeight="24960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记复习第一遍" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1010,14 +1010,14 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.48979591836734693</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="F5" s="28">
         <v>5</v>
@@ -1175,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="20">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1201,15 +1201,15 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D10" s="34">
         <f t="shared" si="0"/>
-        <v>0.53</v>
+        <v>0.58609271523178808</v>
       </c>
       <c r="F10" s="28">
         <v>15</v>
@@ -1292,7 +1292,7 @@
     <row r="13" spans="1:22">
       <c r="A13" s="31">
         <f>C10/B10</f>
-        <v>0.53</v>
+        <v>0.58609271523178808</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>

--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D00CC-4510-284D-AC65-808241E27337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C8C834-228D-7A4F-A85D-833AD05A1880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47380" yWindow="2320" windowWidth="42980" windowHeight="24960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47540" yWindow="1980" windowWidth="42980" windowHeight="24960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记复习第一遍" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -877,11 +877,11 @@
         <v>32</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2" s="27">
         <f>C2/B2</f>
-        <v>0</v>
+        <v>0.84375</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>20</v>
@@ -941,11 +941,11 @@
         <v>38</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D10" si="0">C3/B3</f>
-        <v>0</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="F3" s="28">
         <v>1</v>
@@ -977,11 +977,11 @@
         <v>46</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="28">
         <v>3</v>
@@ -1013,11 +1013,11 @@
         <v>51</v>
       </c>
       <c r="C5" s="1">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="F5" s="28">
         <v>5</v>
@@ -1175,12 +1175,20 @@
         <v>13</v>
       </c>
       <c r="G9" s="20">
-        <v>35</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="H9" s="20">
+        <v>46</v>
+      </c>
+      <c r="I9" s="20">
+        <v>5</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>27</v>
+      </c>
       <c r="L9" s="20"/>
       <c r="M9" s="26"/>
       <c r="N9" s="12"/>
@@ -1205,11 +1213,11 @@
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="D10" s="34">
         <f t="shared" si="0"/>
-        <v>0.58609271523178808</v>
+        <v>0.89072847682119205</v>
       </c>
       <c r="F10" s="28">
         <v>15</v>
@@ -1292,7 +1300,7 @@
     <row r="13" spans="1:22">
       <c r="A13" s="31">
         <f>C10/B10</f>
-        <v>0.58609271523178808</v>
+        <v>0.89072847682119205</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -1379,7 +1387,7 @@
       </c>
       <c r="B16" s="23" t="str">
         <f ca="1">TEXT(TODAY(), "dddd")</f>
-        <v>Monday</v>
+        <v>Friday</v>
       </c>
       <c r="F16" s="28">
         <v>27</v>
@@ -1409,7 +1417,7 @@
       </c>
       <c r="B17" s="22">
         <f ca="1">TODAY()</f>
-        <v>45740</v>
+        <v>45744</v>
       </c>
       <c r="F17" s="28">
         <v>29</v>

--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C8C834-228D-7A4F-A85D-833AD05A1880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F5F51-F26E-2B41-B5BB-24D7B6EFC7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47540" yWindow="1980" windowWidth="42980" windowHeight="24960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47000" yWindow="3620" windowWidth="42980" windowHeight="24960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记复习第一遍" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>章节</t>
   </si>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>分别贤圣品第六</t>
-  </si>
-  <si>
-    <t>总进度（2025.03.20）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Mon</t>
@@ -133,6 +129,18 @@
   </si>
   <si>
     <t>当前星期几</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.03.2025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二遍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总进度（2025.03.30）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +402,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,6 +457,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,7 +831,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -849,25 +860,25 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24">
+      <c r="F1" s="25">
         <v>2025</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
@@ -877,60 +888,60 @@
         <v>32</v>
       </c>
       <c r="C2" s="1">
-        <v>27</v>
-      </c>
-      <c r="D2" s="27">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
         <f>C2/B2</f>
-        <v>0.84375</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="M2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="R2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="T2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="U2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="V2" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -941,13 +952,13 @@
         <v>38</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D10" si="0">C3/B3</f>
-        <v>0.26315789473684209</v>
-      </c>
-      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="29">
         <v>1</v>
       </c>
       <c r="G3" s="16"/>
@@ -958,7 +969,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="17"/>
       <c r="N3" s="12"/>
-      <c r="O3" s="30">
+      <c r="O3" s="31">
         <v>2</v>
       </c>
       <c r="P3" s="18"/>
@@ -977,13 +988,13 @@
         <v>46</v>
       </c>
       <c r="C4" s="1">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29">
         <v>3</v>
       </c>
       <c r="G4" s="16"/>
@@ -994,7 +1005,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="17"/>
       <c r="N4" s="12"/>
-      <c r="O4" s="30">
+      <c r="O4" s="31">
         <v>4</v>
       </c>
       <c r="P4" s="18"/>
@@ -1013,13 +1024,13 @@
         <v>51</v>
       </c>
       <c r="C5" s="1">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29">
         <v>5</v>
       </c>
       <c r="G5" s="16"/>
@@ -1030,7 +1041,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="17"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="30">
+      <c r="O5" s="31">
         <v>6</v>
       </c>
       <c r="P5" s="18"/>
@@ -1049,13 +1060,13 @@
         <v>43</v>
       </c>
       <c r="C6" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29">
         <v>7</v>
       </c>
       <c r="G6" s="16"/>
@@ -1066,7 +1077,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="17"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="30">
+      <c r="O6" s="31">
         <v>8</v>
       </c>
       <c r="P6" s="18"/>
@@ -1085,13 +1096,13 @@
         <v>44</v>
       </c>
       <c r="C7" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29">
         <v>9</v>
       </c>
       <c r="G7" s="16"/>
@@ -1102,7 +1113,7 @@
       <c r="L7" s="16"/>
       <c r="M7" s="17"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="30">
+      <c r="O7" s="31">
         <v>10</v>
       </c>
       <c r="P7" s="18"/>
@@ -1121,13 +1132,13 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29">
         <v>11</v>
       </c>
       <c r="G8" s="16"/>
@@ -1138,22 +1149,22 @@
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="30">
+      <c r="O8" s="31">
         <v>12</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="20">
+      <c r="S8" s="21">
         <v>18</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="21">
         <v>30</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="21">
         <v>44</v>
       </c>
-      <c r="V8" s="20">
+      <c r="V8" s="21">
         <v>50</v>
       </c>
     </row>
@@ -1165,43 +1176,47 @@
         <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
         <v>13</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="21">
         <v>44</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="21">
         <v>46</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="21">
         <v>5</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="21">
         <v>0</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="21">
         <v>27</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="26"/>
+      <c r="L9" s="21">
+        <v>5</v>
+      </c>
+      <c r="M9" s="27">
+        <v>28</v>
+      </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="30">
+      <c r="O9" s="31">
         <v>14</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="2" t="s">
@@ -1213,13 +1228,13 @@
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>269</v>
-      </c>
-      <c r="D10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="35">
         <f t="shared" si="0"/>
-        <v>0.89072847682119205</v>
-      </c>
-      <c r="F10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
         <v>15</v>
       </c>
       <c r="G10" s="16"/>
@@ -1230,7 +1245,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="17"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="30">
+      <c r="O10" s="31">
         <v>16</v>
       </c>
       <c r="P10" s="18"/>
@@ -1246,7 +1261,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="28">
+      <c r="F11" s="29">
         <v>17</v>
       </c>
       <c r="G11" s="16"/>
@@ -1257,7 +1272,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="30">
+      <c r="O11" s="31">
         <v>18</v>
       </c>
       <c r="P11" s="18"/>
@@ -1269,13 +1284,13 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="F12" s="28">
+      <c r="A12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="F12" s="29">
         <v>19</v>
       </c>
       <c r="G12" s="16"/>
@@ -1286,7 +1301,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="17"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="30">
+      <c r="O12" s="31">
         <v>20</v>
       </c>
       <c r="P12" s="18"/>
@@ -1298,14 +1313,14 @@
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="31">
+      <c r="A13" s="32">
         <f>C10/B10</f>
-        <v>0.89072847682119205</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="F13" s="29">
         <v>21</v>
       </c>
       <c r="G13" s="16"/>
@@ -1316,7 +1331,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="17"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="30">
+      <c r="O13" s="31">
         <v>22</v>
       </c>
       <c r="P13" s="18"/>
@@ -1328,7 +1343,7 @@
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="F14" s="28">
+      <c r="F14" s="29">
         <v>23</v>
       </c>
       <c r="G14" s="16"/>
@@ -1339,7 +1354,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="30">
+      <c r="O14" s="31">
         <v>24</v>
       </c>
       <c r="P14" s="18"/>
@@ -1352,14 +1367,14 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="19">
         <f ca="1">WEEKNUM(TODAY())</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="F15" s="28">
+      <c r="F15" s="29">
         <v>25</v>
       </c>
       <c r="G15" s="16"/>
@@ -1370,7 +1385,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="30">
+      <c r="O15" s="31">
         <v>26</v>
       </c>
       <c r="P15" s="18"/>
@@ -1383,13 +1398,13 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="B16" s="24" t="str">
         <f ca="1">TEXT(TODAY(), "dddd")</f>
-        <v>Friday</v>
-      </c>
-      <c r="F16" s="28">
+        <v>Sunday</v>
+      </c>
+      <c r="F16" s="29">
         <v>27</v>
       </c>
       <c r="G16" s="16"/>
@@ -1400,7 +1415,7 @@
       <c r="L16" s="16"/>
       <c r="M16" s="17"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="30">
+      <c r="O16" s="31">
         <v>28</v>
       </c>
       <c r="P16" s="18"/>
@@ -1413,13 +1428,13 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="22">
+        <v>21</v>
+      </c>
+      <c r="B17" s="23">
         <f ca="1">TODAY()</f>
-        <v>45744</v>
-      </c>
-      <c r="F17" s="28">
+        <v>45746</v>
+      </c>
+      <c r="F17" s="29">
         <v>29</v>
       </c>
       <c r="G17" s="16"/>
@@ -1430,7 +1445,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="17"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="30">
+      <c r="O17" s="31">
         <v>30</v>
       </c>
       <c r="P17" s="18"/>
@@ -1442,7 +1457,7 @@
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="F18" s="28">
+      <c r="F18" s="29">
         <v>31</v>
       </c>
       <c r="G18" s="16"/>
@@ -1453,7 +1468,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="17"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="30">
+      <c r="O18" s="31">
         <v>32</v>
       </c>
       <c r="P18" s="18"/>
@@ -1466,15 +1481,15 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="28">
+      <c r="F19" s="29">
         <v>33</v>
       </c>
       <c r="G19" s="16"/>
@@ -1485,7 +1500,7 @@
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="30">
+      <c r="O19" s="31">
         <v>34</v>
       </c>
       <c r="P19" s="18"/>
@@ -1498,9 +1513,12 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="28">
+        <v>23</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="29">
         <v>35</v>
       </c>
       <c r="G20" s="16"/>
@@ -1511,7 +1529,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="17"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="30">
+      <c r="O20" s="31">
         <v>36</v>
       </c>
       <c r="P20" s="18"/>
@@ -1523,7 +1541,7 @@
       <c r="V20" s="16"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="F21" s="28">
+      <c r="F21" s="29">
         <v>37</v>
       </c>
       <c r="G21" s="16"/>
@@ -1534,7 +1552,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="17"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="30">
+      <c r="O21" s="31">
         <v>38</v>
       </c>
       <c r="P21" s="18"/>
@@ -1546,7 +1564,16 @@
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="F22" s="28">
+      <c r="A22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="29">
         <v>39</v>
       </c>
       <c r="G22" s="16"/>
@@ -1557,7 +1584,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="17"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="30">
+      <c r="O22" s="31">
         <v>40</v>
       </c>
       <c r="P22" s="18"/>
@@ -1569,7 +1596,11 @@
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="F23" s="28">
+      <c r="A23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="F23" s="29">
         <v>41</v>
       </c>
       <c r="G23" s="16"/>
@@ -1580,7 +1611,7 @@
       <c r="L23" s="16"/>
       <c r="M23" s="17"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="30">
+      <c r="O23" s="31">
         <v>42</v>
       </c>
       <c r="P23" s="18"/>
@@ -1592,7 +1623,7 @@
       <c r="V23" s="16"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="F24" s="28">
+      <c r="F24" s="29">
         <v>43</v>
       </c>
       <c r="G24" s="16"/>
@@ -1603,7 +1634,7 @@
       <c r="L24" s="16"/>
       <c r="M24" s="17"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="30">
+      <c r="O24" s="31">
         <v>44</v>
       </c>
       <c r="P24" s="18"/>
@@ -1615,7 +1646,7 @@
       <c r="V24" s="16"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="F25" s="28">
+      <c r="F25" s="29">
         <v>45</v>
       </c>
       <c r="G25" s="16"/>
@@ -1626,7 +1657,7 @@
       <c r="L25" s="16"/>
       <c r="M25" s="17"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="30">
+      <c r="O25" s="31">
         <v>46</v>
       </c>
       <c r="P25" s="18"/>
@@ -1638,7 +1669,7 @@
       <c r="V25" s="16"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="F26" s="28">
+      <c r="F26" s="29">
         <v>47</v>
       </c>
       <c r="G26" s="16"/>
@@ -1649,7 +1680,7 @@
       <c r="L26" s="16"/>
       <c r="M26" s="17"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="30">
+      <c r="O26" s="31">
         <v>48</v>
       </c>
       <c r="P26" s="18"/>
@@ -1661,7 +1692,7 @@
       <c r="V26" s="16"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="F27" s="28">
+      <c r="F27" s="29">
         <v>49</v>
       </c>
       <c r="G27" s="16"/>
@@ -1672,7 +1703,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="30">
+      <c r="O27" s="31">
         <v>50</v>
       </c>
       <c r="P27" s="18"/>
@@ -1684,7 +1715,7 @@
       <c r="V27" s="16"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="F28" s="28">
+      <c r="F28" s="29">
         <v>51</v>
       </c>
       <c r="G28" s="16"/>
@@ -1695,7 +1726,7 @@
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="30">
+      <c r="O28" s="31">
         <v>52</v>
       </c>
       <c r="P28" s="16"/>
@@ -1707,7 +1738,7 @@
       <c r="V28" s="16"/>
     </row>
     <row r="39" spans="4:4" hidden="1">
-      <c r="D39" s="21">
+      <c r="D39" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1821,74 +1852,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="31">
-      <c r="B1" s="24">
+      <c r="B1" s="25">
         <v>2025</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:18">

--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F5F51-F26E-2B41-B5BB-24D7B6EFC7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B663C1-0297-7445-85E4-9AF54C4ACC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47000" yWindow="3620" windowWidth="42980" windowHeight="24960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,7 +831,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1210,7 +1210,9 @@
       <c r="O9" s="31">
         <v>14</v>
       </c>
-      <c r="P9" s="20"/>
+      <c r="P9" s="20">
+        <v>0</v>
+      </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -1402,7 +1404,7 @@
       </c>
       <c r="B16" s="24" t="str">
         <f ca="1">TEXT(TODAY(), "dddd")</f>
-        <v>Sunday</v>
+        <v>Monday</v>
       </c>
       <c r="F16" s="29">
         <v>27</v>
@@ -1432,7 +1434,7 @@
       </c>
       <c r="B17" s="23">
         <f ca="1">TODAY()</f>
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="F17" s="29">
         <v>29</v>

--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B663C1-0297-7445-85E4-9AF54C4ACC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A85FD0-F257-2B4D-92CF-2B11825C9A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47000" yWindow="3620" windowWidth="42980" windowHeight="24960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,7 +831,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1060,11 +1060,11 @@
         <v>43</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.32558139534883723</v>
       </c>
       <c r="F6" s="29">
         <v>7</v>
@@ -1213,7 +1213,9 @@
       <c r="P9" s="20">
         <v>0</v>
       </c>
-      <c r="Q9" s="21"/>
+      <c r="Q9" s="21">
+        <v>14</v>
+      </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
@@ -1230,11 +1232,11 @@
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D10" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.6357615894039736E-2</v>
       </c>
       <c r="F10" s="29">
         <v>15</v>
@@ -1317,7 +1319,7 @@
     <row r="13" spans="1:22">
       <c r="A13" s="32">
         <f>C10/B10</f>
-        <v>0</v>
+        <v>4.6357615894039736E-2</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -1404,7 +1406,7 @@
       </c>
       <c r="B16" s="24" t="str">
         <f ca="1">TEXT(TODAY(), "dddd")</f>
-        <v>Monday</v>
+        <v>Tuesday</v>
       </c>
       <c r="F16" s="29">
         <v>27</v>
@@ -1434,7 +1436,7 @@
       </c>
       <c r="B17" s="23">
         <f ca="1">TODAY()</f>
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="F17" s="29">
         <v>29</v>

--- a/复习进度.xlsx
+++ b/复习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdphin/Documents/GitHub/JushelunNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A85FD0-F257-2B4D-92CF-2B11825C9A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656C26A1-175E-D446-B170-A8C299DD2354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47000" yWindow="3620" windowWidth="42980" windowHeight="24960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
